--- a/permanent_data/bstud_list.xlsx
+++ b/permanent_data/bstud_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fletch/Desktop/getto_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06881278-7D73-774C-AEC5-7E2CEEB2BF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EC980B-1B55-0A48-9CB9-3201238F7D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="11340" windowHeight="11420" xr2:uid="{8BA19672-DC71-F541-B880-63FA370FFD8F}"/>
   </bookViews>
@@ -38,21 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
-    <t>Monday 1600-1700</t>
-  </si>
-  <si>
-    <t>Tuesday 1600-1700</t>
-  </si>
-  <si>
-    <t>Wednesday 1600-1700</t>
-  </si>
-  <si>
-    <t>Thursday 1600-1700</t>
-  </si>
-  <si>
-    <t>Friday 1600-1700</t>
-  </si>
-  <si>
     <t>Nono</t>
   </si>
   <si>
@@ -174,6 +159,21 @@
   </si>
   <si>
     <t>Tross</t>
+  </si>
+  <si>
+    <t>Monday 1600</t>
+  </si>
+  <si>
+    <t>Tuesday 1600</t>
+  </si>
+  <si>
+    <t>Wednesday 1600</t>
+  </si>
+  <si>
+    <t>Thursday 1600</t>
+  </si>
+  <si>
+    <t>Friday 1600</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,160 +575,160 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/permanent_data/bstud_list.xlsx
+++ b/permanent_data/bstud_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fletch/Desktop/getto_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fletch/Desktop/bluffs_getto/permanent_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EC980B-1B55-0A48-9CB9-3201238F7D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D81449-8185-FF49-8B9D-0B1B1B3DE140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="11340" windowHeight="11420" xr2:uid="{8BA19672-DC71-F541-B880-63FA370FFD8F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Nono</t>
   </si>
@@ -168,12 +168,6 @@
   </si>
   <si>
     <t>Wednesday 1600</t>
-  </si>
-  <si>
-    <t>Thursday 1600</t>
-  </si>
-  <si>
-    <t>Friday 1600</t>
   </si>
 </sst>
 </file>
@@ -558,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF97401-A2D5-0F47-BF97-5100A0B21174}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,12 +577,6 @@
       <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -600,12 +588,6 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -617,12 +599,6 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -634,12 +610,6 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -651,12 +621,6 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -668,12 +632,7 @@
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -685,12 +644,7 @@
       <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -702,12 +656,7 @@
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -719,16 +668,70 @@
       <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E10" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
